--- a/biology/Botanique/Psychotria/Psychotria.xlsx
+++ b/biology/Botanique/Psychotria/Psychotria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychotria est un genre de plantes à fleurs de la famille des Rubiaceae des forêts tropicales humides. Ce sont de petits arbres, des arbustes ou des lianes, parfois épiphytes qui ont un air de parenté avec les caféiers.
 On compte plus de 1 900 espèces dont près de 800 sont décrites. Quelques espèces d'Amérique centrale sont déjà sur la liste rouge de l'UICN dont Psychotria hobdyi (1998) et Psychotria angustata (2000).
@@ -512,7 +524,9 @@
           <t>Liste d'espèces (non exhaustive)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Nouvelle-Calédonie abrite 86 espèces (la plupart décrites par André Guillaumin), toutes endémiques :
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les espèces décrites, certaines (Psychotria viridis) en association avec une Banisteriopsis (Banisteriopsis caapi) sont utilisées par les Indiens du bassin de l'Amazone pour provoquer des visions au cours de cérémonies chamaniques sous le nom d'Ayahuasca. La présence de N,N-diméthyltryptamine a été identifiée chez Psychotria viridis, cependant il semble que cette plante ne soit jamais utilisée seule, puisque le N,N-diméthyltryptamine n'aurait pas d'effet s'il était ingéré sans IMAO.
 De nombreuses espèces font partie de la pharmacopée de ces tribus.
